--- a/Archivos/Resultados/Clasificacion/RNN/Clasificacion-20220628_10/Stats-Clasificacion-20220628_10.xlsx
+++ b/Archivos/Resultados/Clasificacion/RNN/Clasificacion-20220628_10/Stats-Clasificacion-20220628_10.xlsx
@@ -8,6 +8,11 @@
   <sheets>
     <sheet name="Informacion" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="0-20220628_101231" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1-20220628_143817" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2-20220628_185107" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="3-20220628_232444" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="4-20220629_033918" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="5-20220629_065533" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2904,4 +2909,7420 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>val_loss</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>val_acc</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>val_TP</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>val_TN</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>val_FP</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>val_FN</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.324095845222473</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6028628349304199</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1713</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1909</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1095</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1291</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5937197208404541</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6398503184318542</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="K2" t="n">
+        <v>36</v>
+      </c>
+      <c r="L2" t="n">
+        <v>14</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8536931872367859</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6409786939620972</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1663</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2188</v>
+      </c>
+      <c r="F3" t="n">
+        <v>816</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1341</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.694435715675354</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5569067597389221</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1746</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9229246973991394</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6343209147453308</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1654</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2157</v>
+      </c>
+      <c r="F4" t="n">
+        <v>847</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1350</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3824616670608521</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7087621092796326</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2238</v>
+      </c>
+      <c r="K4" t="n">
+        <v>35</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15</v>
+      </c>
+      <c r="M4" t="n">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7868379950523376</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6636151671409607</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1722</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2265</v>
+      </c>
+      <c r="F5" t="n">
+        <v>739</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1282</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7045153379440308</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5453695058822632</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K5" t="n">
+        <v>40</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7102215886116028</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6779294013977051</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1759</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2314</v>
+      </c>
+      <c r="F6" t="n">
+        <v>690</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1245</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8104950189590454</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4773932099342346</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1490</v>
+      </c>
+      <c r="K6" t="n">
+        <v>41</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6434938907623291</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6982356905937195</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1850</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2345</v>
+      </c>
+      <c r="F7" t="n">
+        <v>659</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1154</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7138696312904358</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5316495299339294</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1667</v>
+      </c>
+      <c r="K7" t="n">
+        <v>38</v>
+      </c>
+      <c r="L7" t="n">
+        <v>12</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.711883008480072</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.654960036277771</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1761</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2174</v>
+      </c>
+      <c r="F8" t="n">
+        <v>830</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1243</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7514274716377258</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4533832371234894</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1413</v>
+      </c>
+      <c r="K8" t="n">
+        <v>41</v>
+      </c>
+      <c r="L8" t="n">
+        <v>9</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.644085705280304</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6752663254737854</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1798</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2259</v>
+      </c>
+      <c r="F9" t="n">
+        <v>745</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1206</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5374623537063599</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.674150288105011</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2127</v>
+      </c>
+      <c r="K9" t="n">
+        <v>35</v>
+      </c>
+      <c r="L9" t="n">
+        <v>15</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.618577241897583</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6904127597808838</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1814</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2334</v>
+      </c>
+      <c r="F10" t="n">
+        <v>670</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1190</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4199835360050201</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.725288450717926</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2291</v>
+      </c>
+      <c r="K10" t="n">
+        <v>35</v>
+      </c>
+      <c r="L10" t="n">
+        <v>15</v>
+      </c>
+      <c r="M10" t="n">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6143169403076172</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6962383389472961</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1851</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2332</v>
+      </c>
+      <c r="F11" t="n">
+        <v>672</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1153</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4200262427330017</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.746803879737854</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2361</v>
+      </c>
+      <c r="K11" t="n">
+        <v>34</v>
+      </c>
+      <c r="L11" t="n">
+        <v>16</v>
+      </c>
+      <c r="M11" t="n">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5979819297790527</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7090545892715454</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1910</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2350</v>
+      </c>
+      <c r="F12" t="n">
+        <v>654</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1094</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4685678780078888</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.7277829647064209</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2300</v>
+      </c>
+      <c r="K12" t="n">
+        <v>34</v>
+      </c>
+      <c r="L12" t="n">
+        <v>16</v>
+      </c>
+      <c r="M12" t="n">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5924718976020813</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7185419201850891</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1980</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2337</v>
+      </c>
+      <c r="F13" t="n">
+        <v>667</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.4998070299625397</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.7324602603912354</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2315</v>
+      </c>
+      <c r="K13" t="n">
+        <v>34</v>
+      </c>
+      <c r="L13" t="n">
+        <v>16</v>
+      </c>
+      <c r="M13" t="n">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5823989510536194</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7182090282440186</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2303</v>
+      </c>
+      <c r="F14" t="n">
+        <v>701</v>
+      </c>
+      <c r="G14" t="n">
+        <v>992</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5281850695610046</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.7218584418296814</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2281</v>
+      </c>
+      <c r="K14" t="n">
+        <v>34</v>
+      </c>
+      <c r="L14" t="n">
+        <v>16</v>
+      </c>
+      <c r="M14" t="n">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6046881675720215</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7160452604293823</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1978</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2324</v>
+      </c>
+      <c r="F15" t="n">
+        <v>680</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1026</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4612069129943848</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.7455565929412842</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2357</v>
+      </c>
+      <c r="K15" t="n">
+        <v>34</v>
+      </c>
+      <c r="L15" t="n">
+        <v>16</v>
+      </c>
+      <c r="M15" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.563640296459198</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7301930785179138</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2062</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2325</v>
+      </c>
+      <c r="F16" t="n">
+        <v>679</v>
+      </c>
+      <c r="G16" t="n">
+        <v>942</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4759500622749329</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.7411911487579346</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2343</v>
+      </c>
+      <c r="K16" t="n">
+        <v>34</v>
+      </c>
+      <c r="L16" t="n">
+        <v>16</v>
+      </c>
+      <c r="M16" t="n">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5548074245452881</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7386817336082458</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2078</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2360</v>
+      </c>
+      <c r="F17" t="n">
+        <v>644</v>
+      </c>
+      <c r="G17" t="n">
+        <v>926</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.4678654074668884</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.7452448010444641</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2356</v>
+      </c>
+      <c r="K17" t="n">
+        <v>34</v>
+      </c>
+      <c r="L17" t="n">
+        <v>16</v>
+      </c>
+      <c r="M17" t="n">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.548737645149231</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7375166416168213</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2119</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2312</v>
+      </c>
+      <c r="F18" t="n">
+        <v>692</v>
+      </c>
+      <c r="G18" t="n">
+        <v>885</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.4174350202083588</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.7795447707176208</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2466</v>
+      </c>
+      <c r="K18" t="n">
+        <v>34</v>
+      </c>
+      <c r="L18" t="n">
+        <v>16</v>
+      </c>
+      <c r="M18" t="n">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5594345927238464</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.73235684633255</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2081</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2319</v>
+      </c>
+      <c r="F19" t="n">
+        <v>685</v>
+      </c>
+      <c r="G19" t="n">
+        <v>923</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4570725560188293</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.7602120637893677</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2405</v>
+      </c>
+      <c r="K19" t="n">
+        <v>33</v>
+      </c>
+      <c r="L19" t="n">
+        <v>17</v>
+      </c>
+      <c r="M19" t="n">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5596932172775269</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7316910624504089</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2108</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2288</v>
+      </c>
+      <c r="F20" t="n">
+        <v>716</v>
+      </c>
+      <c r="G20" t="n">
+        <v>896</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4588651359081268</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.767383873462677</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2428</v>
+      </c>
+      <c r="K20" t="n">
+        <v>33</v>
+      </c>
+      <c r="L20" t="n">
+        <v>17</v>
+      </c>
+      <c r="M20" t="n">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5610368847846985</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7310252785682678</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2075</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2317</v>
+      </c>
+      <c r="F21" t="n">
+        <v>687</v>
+      </c>
+      <c r="G21" t="n">
+        <v>929</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.4088819622993469</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.7789211273193359</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2464</v>
+      </c>
+      <c r="K21" t="n">
+        <v>34</v>
+      </c>
+      <c r="L21" t="n">
+        <v>16</v>
+      </c>
+      <c r="M21" t="n">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5652297735214233</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7306923866271973</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2267</v>
+      </c>
+      <c r="F22" t="n">
+        <v>737</v>
+      </c>
+      <c r="G22" t="n">
+        <v>881</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4093292355537415</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8029310703277588</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2543</v>
+      </c>
+      <c r="K22" t="n">
+        <v>32</v>
+      </c>
+      <c r="L22" t="n">
+        <v>18</v>
+      </c>
+      <c r="M22" t="n">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5697160363197327</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.728528618812561</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2203</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2174</v>
+      </c>
+      <c r="F23" t="n">
+        <v>830</v>
+      </c>
+      <c r="G23" t="n">
+        <v>801</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5059360265731812</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.7751792669296265</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2452</v>
+      </c>
+      <c r="K23" t="n">
+        <v>34</v>
+      </c>
+      <c r="L23" t="n">
+        <v>16</v>
+      </c>
+      <c r="M23" t="n">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5312910079956055</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7486684322357178</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2302</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2196</v>
+      </c>
+      <c r="F24" t="n">
+        <v>808</v>
+      </c>
+      <c r="G24" t="n">
+        <v>702</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4760908782482147</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.7854692935943604</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2486</v>
+      </c>
+      <c r="K24" t="n">
+        <v>33</v>
+      </c>
+      <c r="L24" t="n">
+        <v>17</v>
+      </c>
+      <c r="M24" t="n">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5237229466438293</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7558255791664124</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2307</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2234</v>
+      </c>
+      <c r="F25" t="n">
+        <v>770</v>
+      </c>
+      <c r="G25" t="n">
+        <v>697</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.4359047412872314</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8044901490211487</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2547</v>
+      </c>
+      <c r="K25" t="n">
+        <v>33</v>
+      </c>
+      <c r="L25" t="n">
+        <v>17</v>
+      </c>
+      <c r="M25" t="n">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5354946255683899</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7450066804885864</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2244</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2232</v>
+      </c>
+      <c r="F26" t="n">
+        <v>772</v>
+      </c>
+      <c r="G26" t="n">
+        <v>760</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.4803046882152557</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.7695665955543518</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2435</v>
+      </c>
+      <c r="K26" t="n">
+        <v>33</v>
+      </c>
+      <c r="L26" t="n">
+        <v>17</v>
+      </c>
+      <c r="M26" t="n">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.539210319519043</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7408455610275269</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2210</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2241</v>
+      </c>
+      <c r="F27" t="n">
+        <v>763</v>
+      </c>
+      <c r="G27" t="n">
+        <v>794</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.4784277379512787</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.7848456501960754</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2484</v>
+      </c>
+      <c r="K27" t="n">
+        <v>33</v>
+      </c>
+      <c r="L27" t="n">
+        <v>17</v>
+      </c>
+      <c r="M27" t="n">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.521134078502655</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.7559919953346252</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2252</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2290</v>
+      </c>
+      <c r="F28" t="n">
+        <v>714</v>
+      </c>
+      <c r="G28" t="n">
+        <v>752</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.4759605228900909</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.7652011513710022</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2420</v>
+      </c>
+      <c r="K28" t="n">
+        <v>34</v>
+      </c>
+      <c r="L28" t="n">
+        <v>16</v>
+      </c>
+      <c r="M28" t="n">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5126734375953674</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.7581557631492615</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2323</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2232</v>
+      </c>
+      <c r="F29" t="n">
+        <v>772</v>
+      </c>
+      <c r="G29" t="n">
+        <v>681</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.4822387099266052</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.7689429521560669</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2433</v>
+      </c>
+      <c r="K29" t="n">
+        <v>33</v>
+      </c>
+      <c r="L29" t="n">
+        <v>17</v>
+      </c>
+      <c r="M29" t="n">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5051982402801514</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.7599866986274719</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2312</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2254</v>
+      </c>
+      <c r="F30" t="n">
+        <v>750</v>
+      </c>
+      <c r="G30" t="n">
+        <v>692</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.4249524474143982</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7923292517662048</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2508</v>
+      </c>
+      <c r="K30" t="n">
+        <v>33</v>
+      </c>
+      <c r="L30" t="n">
+        <v>17</v>
+      </c>
+      <c r="M30" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5094548463821411</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.762316882610321</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2325</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2255</v>
+      </c>
+      <c r="F31" t="n">
+        <v>749</v>
+      </c>
+      <c r="G31" t="n">
+        <v>679</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.402019739151001</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.8338010311126709</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2642</v>
+      </c>
+      <c r="K31" t="n">
+        <v>32</v>
+      </c>
+      <c r="L31" t="n">
+        <v>18</v>
+      </c>
+      <c r="M31" t="n">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5004183053970337</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7624833583831787</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2358</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2223</v>
+      </c>
+      <c r="F32" t="n">
+        <v>781</v>
+      </c>
+      <c r="G32" t="n">
+        <v>646</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.3773186504840851</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.852821946144104</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2703</v>
+      </c>
+      <c r="K32" t="n">
+        <v>32</v>
+      </c>
+      <c r="L32" t="n">
+        <v>18</v>
+      </c>
+      <c r="M32" t="n">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.4990370571613312</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.761484682559967</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2352</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2223</v>
+      </c>
+      <c r="F33" t="n">
+        <v>781</v>
+      </c>
+      <c r="G33" t="n">
+        <v>652</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.4472612142562866</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7976301908493042</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2526</v>
+      </c>
+      <c r="K33" t="n">
+        <v>32</v>
+      </c>
+      <c r="L33" t="n">
+        <v>18</v>
+      </c>
+      <c r="M33" t="n">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.4968307614326477</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.7671437859535217</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2395</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2214</v>
+      </c>
+      <c r="F34" t="n">
+        <v>790</v>
+      </c>
+      <c r="G34" t="n">
+        <v>609</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.4061289429664612</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.8444028496742249</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2676</v>
+      </c>
+      <c r="K34" t="n">
+        <v>32</v>
+      </c>
+      <c r="L34" t="n">
+        <v>18</v>
+      </c>
+      <c r="M34" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.4980974197387695</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.7649800181388855</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2391</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2205</v>
+      </c>
+      <c r="F35" t="n">
+        <v>799</v>
+      </c>
+      <c r="G35" t="n">
+        <v>613</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.4440789818763733</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.800748348236084</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2536</v>
+      </c>
+      <c r="K35" t="n">
+        <v>32</v>
+      </c>
+      <c r="L35" t="n">
+        <v>18</v>
+      </c>
+      <c r="M35" t="n">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4927855432033539</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.7666444778442383</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2409</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2197</v>
+      </c>
+      <c r="F36" t="n">
+        <v>807</v>
+      </c>
+      <c r="G36" t="n">
+        <v>595</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.4412909150123596</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.8468974232673645</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2684</v>
+      </c>
+      <c r="K36" t="n">
+        <v>32</v>
+      </c>
+      <c r="L36" t="n">
+        <v>18</v>
+      </c>
+      <c r="M36" t="n">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.491377979516983</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.7703062295913696</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2423</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2205</v>
+      </c>
+      <c r="F37" t="n">
+        <v>799</v>
+      </c>
+      <c r="G37" t="n">
+        <v>581</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.4026494324207306</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.8515746593475342</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2699</v>
+      </c>
+      <c r="K37" t="n">
+        <v>32</v>
+      </c>
+      <c r="L37" t="n">
+        <v>18</v>
+      </c>
+      <c r="M37" t="n">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.4916650056838989</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.7729693651199341</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2421</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2223</v>
+      </c>
+      <c r="F38" t="n">
+        <v>781</v>
+      </c>
+      <c r="G38" t="n">
+        <v>583</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.4028504192829132</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.8506392240524292</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2696</v>
+      </c>
+      <c r="K38" t="n">
+        <v>32</v>
+      </c>
+      <c r="L38" t="n">
+        <v>18</v>
+      </c>
+      <c r="M38" t="n">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.4862859547138214</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.7769640684127808</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2457</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2211</v>
+      </c>
+      <c r="F39" t="n">
+        <v>793</v>
+      </c>
+      <c r="G39" t="n">
+        <v>547</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.4365095496177673</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.8618646860122681</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2732</v>
+      </c>
+      <c r="K39" t="n">
+        <v>32</v>
+      </c>
+      <c r="L39" t="n">
+        <v>18</v>
+      </c>
+      <c r="M39" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4806872010231018</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.7774633765220642</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2464</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2207</v>
+      </c>
+      <c r="F40" t="n">
+        <v>797</v>
+      </c>
+      <c r="G40" t="n">
+        <v>540</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.4219834506511688</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.8525101542472839</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2702</v>
+      </c>
+      <c r="K40" t="n">
+        <v>32</v>
+      </c>
+      <c r="L40" t="n">
+        <v>18</v>
+      </c>
+      <c r="M40" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4818242490291595</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.7789613604545593</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2188</v>
+      </c>
+      <c r="F41" t="n">
+        <v>816</v>
+      </c>
+      <c r="G41" t="n">
+        <v>512</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.4261668026447296</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.8412846922874451</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2666</v>
+      </c>
+      <c r="K41" t="n">
+        <v>32</v>
+      </c>
+      <c r="L41" t="n">
+        <v>18</v>
+      </c>
+      <c r="M41" t="n">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>val_loss</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>val_acc</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>val_TP</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>val_TN</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>val_FP</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>val_FN</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.834944009780884</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.562916100025177</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1682</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1322</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1304</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.455900430679321</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.01559089496731758</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6837632656097412</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6506325006484985</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1702</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2207</v>
+      </c>
+      <c r="F3" t="n">
+        <v>797</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1302</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.308320164680481</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.05144995450973511</v>
+      </c>
+      <c r="J3" t="n">
+        <v>115</v>
+      </c>
+      <c r="K3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6852067708969116</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6611185073852539</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1738</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2234</v>
+      </c>
+      <c r="F4" t="n">
+        <v>770</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1266</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.183968544006348</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.03866541758179665</v>
+      </c>
+      <c r="J4" t="n">
+        <v>74</v>
+      </c>
+      <c r="K4" t="n">
+        <v>50</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6457167863845825</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6721038818359375</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1745</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2293</v>
+      </c>
+      <c r="F5" t="n">
+        <v>711</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1259</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.022504210472107</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.05051450058817863</v>
+      </c>
+      <c r="J5" t="n">
+        <v>112</v>
+      </c>
+      <c r="K5" t="n">
+        <v>50</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6714834570884705</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6504660248756409</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1695</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2213</v>
+      </c>
+      <c r="F6" t="n">
+        <v>791</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1309</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.776918053627014</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.03928905352950096</v>
+      </c>
+      <c r="J6" t="n">
+        <v>76</v>
+      </c>
+      <c r="K6" t="n">
+        <v>50</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6759799718856812</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6684420704841614</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1763</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2253</v>
+      </c>
+      <c r="F7" t="n">
+        <v>751</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1241</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.100075602531433</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.05768631026148796</v>
+      </c>
+      <c r="J7" t="n">
+        <v>136</v>
+      </c>
+      <c r="K7" t="n">
+        <v>49</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.618969202041626</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6820905208587646</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1794</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2304</v>
+      </c>
+      <c r="F8" t="n">
+        <v>700</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1210</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9003462195396423</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.3096351623535156</v>
+      </c>
+      <c r="J8" t="n">
+        <v>944</v>
+      </c>
+      <c r="K8" t="n">
+        <v>49</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.600057065486908</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6992343664169312</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1858</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2343</v>
+      </c>
+      <c r="F9" t="n">
+        <v>661</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1146</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8811694383621216</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.3910196423530579</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1211</v>
+      </c>
+      <c r="K9" t="n">
+        <v>43</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5865458250045776</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7118841409683228</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1958</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2319</v>
+      </c>
+      <c r="F10" t="n">
+        <v>685</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1046</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8821940422058105</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.395073264837265</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K10" t="n">
+        <v>42</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5766251087188721</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7173768281936646</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2308</v>
+      </c>
+      <c r="F11" t="n">
+        <v>696</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1002</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8575891852378845</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4122232496738434</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1282</v>
+      </c>
+      <c r="K11" t="n">
+        <v>40</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5706826448440552</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.723868191242218</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2325</v>
+      </c>
+      <c r="F12" t="n">
+        <v>679</v>
+      </c>
+      <c r="G12" t="n">
+        <v>980</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8372049927711487</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.4505768716335297</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1407</v>
+      </c>
+      <c r="K12" t="n">
+        <v>38</v>
+      </c>
+      <c r="L12" t="n">
+        <v>12</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6240640878677368</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6850865483283997</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1918</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2198</v>
+      </c>
+      <c r="F13" t="n">
+        <v>806</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1086</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.707259058952332</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0941690057516098</v>
+      </c>
+      <c r="J13" t="n">
+        <v>255</v>
+      </c>
+      <c r="K13" t="n">
+        <v>47</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5870257616043091</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7183755040168762</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1983</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2333</v>
+      </c>
+      <c r="F14" t="n">
+        <v>671</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1021</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9169034957885742</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.31587153673172</v>
+      </c>
+      <c r="J14" t="n">
+        <v>967</v>
+      </c>
+      <c r="K14" t="n">
+        <v>46</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5670288801193237</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.737683117389679</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2094</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2338</v>
+      </c>
+      <c r="F15" t="n">
+        <v>666</v>
+      </c>
+      <c r="G15" t="n">
+        <v>910</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.7745361924171448</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5216713547706604</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1635</v>
+      </c>
+      <c r="K15" t="n">
+        <v>38</v>
+      </c>
+      <c r="L15" t="n">
+        <v>12</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.609174907207489</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7070572376251221</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1967</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2281</v>
+      </c>
+      <c r="F16" t="n">
+        <v>723</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1037</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.7921778559684753</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.4923604726791382</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1541</v>
+      </c>
+      <c r="K16" t="n">
+        <v>38</v>
+      </c>
+      <c r="L16" t="n">
+        <v>12</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5554655790328979</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.737683117389679</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2044</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2388</v>
+      </c>
+      <c r="F17" t="n">
+        <v>616</v>
+      </c>
+      <c r="G17" t="n">
+        <v>960</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7348605990409851</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5375740528106689</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1686</v>
+      </c>
+      <c r="K17" t="n">
+        <v>38</v>
+      </c>
+      <c r="L17" t="n">
+        <v>12</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5477798581123352</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7473368644714355</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2102</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2388</v>
+      </c>
+      <c r="F18" t="n">
+        <v>616</v>
+      </c>
+      <c r="G18" t="n">
+        <v>902</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.7396305203437805</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5332086086273193</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1671</v>
+      </c>
+      <c r="K18" t="n">
+        <v>39</v>
+      </c>
+      <c r="L18" t="n">
+        <v>11</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5408371686935425</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7471704483032227</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2155</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2334</v>
+      </c>
+      <c r="F19" t="n">
+        <v>670</v>
+      </c>
+      <c r="G19" t="n">
+        <v>849</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.6977463960647583</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5784221887588501</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1816</v>
+      </c>
+      <c r="K19" t="n">
+        <v>39</v>
+      </c>
+      <c r="L19" t="n">
+        <v>11</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5456377863883972</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7488349080085754</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2161</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2338</v>
+      </c>
+      <c r="F20" t="n">
+        <v>666</v>
+      </c>
+      <c r="G20" t="n">
+        <v>843</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.7938833236694336</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.5410040616989136</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1697</v>
+      </c>
+      <c r="K20" t="n">
+        <v>38</v>
+      </c>
+      <c r="L20" t="n">
+        <v>12</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5320055484771729</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7511650919914246</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2173</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2340</v>
+      </c>
+      <c r="F21" t="n">
+        <v>664</v>
+      </c>
+      <c r="G21" t="n">
+        <v>831</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.7363758087158203</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5796694755554199</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1822</v>
+      </c>
+      <c r="K21" t="n">
+        <v>37</v>
+      </c>
+      <c r="L21" t="n">
+        <v>13</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5369987487792969</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7478362321853638</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2166</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2327</v>
+      </c>
+      <c r="F22" t="n">
+        <v>677</v>
+      </c>
+      <c r="G22" t="n">
+        <v>838</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5828736424446106</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6757093667984009</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2130</v>
+      </c>
+      <c r="K22" t="n">
+        <v>37</v>
+      </c>
+      <c r="L22" t="n">
+        <v>13</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5288531184196472</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7544940114021301</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2162</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2371</v>
+      </c>
+      <c r="F23" t="n">
+        <v>633</v>
+      </c>
+      <c r="G23" t="n">
+        <v>842</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5818557739257812</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.6835048198699951</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2157</v>
+      </c>
+      <c r="K23" t="n">
+        <v>35</v>
+      </c>
+      <c r="L23" t="n">
+        <v>15</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5225861668586731</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7586551308631897</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2195</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2363</v>
+      </c>
+      <c r="F24" t="n">
+        <v>641</v>
+      </c>
+      <c r="G24" t="n">
+        <v>809</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.7949638962745667</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5132522583007812</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1605</v>
+      </c>
+      <c r="K24" t="n">
+        <v>41</v>
+      </c>
+      <c r="L24" t="n">
+        <v>9</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.531919538974762</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7518308758735657</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2166</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2351</v>
+      </c>
+      <c r="F25" t="n">
+        <v>653</v>
+      </c>
+      <c r="G25" t="n">
+        <v>838</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.7406278252601624</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.5519176721572876</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1730</v>
+      </c>
+      <c r="K25" t="n">
+        <v>40</v>
+      </c>
+      <c r="L25" t="n">
+        <v>10</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5166841149330139</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7588215470314026</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2224</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2335</v>
+      </c>
+      <c r="F26" t="n">
+        <v>669</v>
+      </c>
+      <c r="G26" t="n">
+        <v>780</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.6569011807441711</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5974431037902832</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1877</v>
+      </c>
+      <c r="K26" t="n">
+        <v>39</v>
+      </c>
+      <c r="L26" t="n">
+        <v>11</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5279212594032288</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7523302435874939</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2213</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2307</v>
+      </c>
+      <c r="F27" t="n">
+        <v>697</v>
+      </c>
+      <c r="G27" t="n">
+        <v>791</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5471211671829224</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.7062675356864929</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2228</v>
+      </c>
+      <c r="K27" t="n">
+        <v>37</v>
+      </c>
+      <c r="L27" t="n">
+        <v>13</v>
+      </c>
+      <c r="M27" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5204141139984131</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.7578229308128357</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2211</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2342</v>
+      </c>
+      <c r="F28" t="n">
+        <v>662</v>
+      </c>
+      <c r="G28" t="n">
+        <v>793</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5814706683158875</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.694730281829834</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2192</v>
+      </c>
+      <c r="K28" t="n">
+        <v>36</v>
+      </c>
+      <c r="L28" t="n">
+        <v>14</v>
+      </c>
+      <c r="M28" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5161562561988831</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.7571571469306946</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2212</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2337</v>
+      </c>
+      <c r="F29" t="n">
+        <v>667</v>
+      </c>
+      <c r="G29" t="n">
+        <v>792</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.6903030276298523</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.5665731430053711</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1778</v>
+      </c>
+      <c r="K29" t="n">
+        <v>39</v>
+      </c>
+      <c r="L29" t="n">
+        <v>11</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5144023299217224</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.7593209147453308</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2192</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2370</v>
+      </c>
+      <c r="F30" t="n">
+        <v>634</v>
+      </c>
+      <c r="G30" t="n">
+        <v>812</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.6458525657653809</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.5893357992172241</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1853</v>
+      </c>
+      <c r="K30" t="n">
+        <v>37</v>
+      </c>
+      <c r="L30" t="n">
+        <v>13</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5128928422927856</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.7609853744506836</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2213</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2359</v>
+      </c>
+      <c r="F31" t="n">
+        <v>645</v>
+      </c>
+      <c r="G31" t="n">
+        <v>791</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.6032835245132446</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.631119430065155</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1987</v>
+      </c>
+      <c r="K31" t="n">
+        <v>37</v>
+      </c>
+      <c r="L31" t="n">
+        <v>13</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5120663046836853</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7563248872756958</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2218</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2326</v>
+      </c>
+      <c r="F32" t="n">
+        <v>678</v>
+      </c>
+      <c r="G32" t="n">
+        <v>786</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.7031093835830688</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.5840349197387695</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1837</v>
+      </c>
+      <c r="K32" t="n">
+        <v>36</v>
+      </c>
+      <c r="L32" t="n">
+        <v>14</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.514316737651825</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.7608188986778259</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2252</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2319</v>
+      </c>
+      <c r="F33" t="n">
+        <v>685</v>
+      </c>
+      <c r="G33" t="n">
+        <v>752</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.4892395734786987</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7517929673194885</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2377</v>
+      </c>
+      <c r="K33" t="n">
+        <v>34</v>
+      </c>
+      <c r="L33" t="n">
+        <v>16</v>
+      </c>
+      <c r="M33" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5124713778495789</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.7638149261474609</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2212</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2377</v>
+      </c>
+      <c r="F34" t="n">
+        <v>627</v>
+      </c>
+      <c r="G34" t="n">
+        <v>792</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.6523360013961792</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.5918303728103638</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1862</v>
+      </c>
+      <c r="K34" t="n">
+        <v>36</v>
+      </c>
+      <c r="L34" t="n">
+        <v>14</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5154536962509155</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.7586551308631897</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2205</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2353</v>
+      </c>
+      <c r="F35" t="n">
+        <v>651</v>
+      </c>
+      <c r="G35" t="n">
+        <v>799</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.550193727016449</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.6919239163398743</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2182</v>
+      </c>
+      <c r="K35" t="n">
+        <v>37</v>
+      </c>
+      <c r="L35" t="n">
+        <v>13</v>
+      </c>
+      <c r="M35" t="n">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5066489577293396</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.761484682559967</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2228</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2347</v>
+      </c>
+      <c r="F36" t="n">
+        <v>657</v>
+      </c>
+      <c r="G36" t="n">
+        <v>776</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.5614852905273438</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.6766448616981506</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2132</v>
+      </c>
+      <c r="K36" t="n">
+        <v>38</v>
+      </c>
+      <c r="L36" t="n">
+        <v>12</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4969199299812317</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.7674766778945923</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2256</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2355</v>
+      </c>
+      <c r="F37" t="n">
+        <v>649</v>
+      </c>
+      <c r="G37" t="n">
+        <v>748</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.5514674782752991</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.7221702337265015</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2284</v>
+      </c>
+      <c r="K37" t="n">
+        <v>32</v>
+      </c>
+      <c r="L37" t="n">
+        <v>18</v>
+      </c>
+      <c r="M37" t="n">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.494785487651825</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.7696405053138733</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2279</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2345</v>
+      </c>
+      <c r="F38" t="n">
+        <v>659</v>
+      </c>
+      <c r="G38" t="n">
+        <v>725</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.6911284327507019</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.5890240073204041</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1850</v>
+      </c>
+      <c r="K38" t="n">
+        <v>39</v>
+      </c>
+      <c r="L38" t="n">
+        <v>11</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5228574275970459</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.758488655090332</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2188</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2369</v>
+      </c>
+      <c r="F39" t="n">
+        <v>635</v>
+      </c>
+      <c r="G39" t="n">
+        <v>816</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.610318124294281</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.6345494389533997</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K39" t="n">
+        <v>35</v>
+      </c>
+      <c r="L39" t="n">
+        <v>15</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4997209906578064</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.756824254989624</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2260</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2287</v>
+      </c>
+      <c r="F40" t="n">
+        <v>717</v>
+      </c>
+      <c r="G40" t="n">
+        <v>744</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.5024253129959106</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7617711424827576</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2411</v>
+      </c>
+      <c r="K40" t="n">
+        <v>32</v>
+      </c>
+      <c r="L40" t="n">
+        <v>18</v>
+      </c>
+      <c r="M40" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4903115332126617</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.7628162503242493</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2256</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2327</v>
+      </c>
+      <c r="F41" t="n">
+        <v>677</v>
+      </c>
+      <c r="G41" t="n">
+        <v>748</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.639927089214325</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.6092921495437622</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1915</v>
+      </c>
+      <c r="K41" t="n">
+        <v>39</v>
+      </c>
+      <c r="L41" t="n">
+        <v>11</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>val_loss</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>val_acc</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>val_TP</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>val_TN</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>val_FP</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>val_FN</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.971051216125488</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.589047908782959</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1632</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1907</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1097</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1372</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3970977067947388</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7137511968612671</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2259</v>
+      </c>
+      <c r="K2" t="n">
+        <v>30</v>
+      </c>
+      <c r="L2" t="n">
+        <v>20</v>
+      </c>
+      <c r="M2" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.067706942558289</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6155126690864563</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1623</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2075</v>
+      </c>
+      <c r="F3" t="n">
+        <v>929</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1381</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.134677290916443</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3015279173851013</v>
+      </c>
+      <c r="J3" t="n">
+        <v>917</v>
+      </c>
+      <c r="K3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7986039519309998</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6469706892967224</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1656</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2231</v>
+      </c>
+      <c r="F4" t="n">
+        <v>773</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1348</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5073212385177612</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7059557437896729</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2229</v>
+      </c>
+      <c r="K4" t="n">
+        <v>35</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15</v>
+      </c>
+      <c r="M4" t="n">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7744747996330261</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6654460430145264</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1722</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2276</v>
+      </c>
+      <c r="F5" t="n">
+        <v>728</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1282</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5267308950424194</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6389148831367493</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="K5" t="n">
+        <v>35</v>
+      </c>
+      <c r="L5" t="n">
+        <v>15</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7797578573226929</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6642809510231018</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1705</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2286</v>
+      </c>
+      <c r="F6" t="n">
+        <v>718</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1299</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.415637731552124</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6766448616981506</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2135</v>
+      </c>
+      <c r="K6" t="n">
+        <v>35</v>
+      </c>
+      <c r="L6" t="n">
+        <v>15</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7482936382293701</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6624500751495361</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1698</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2282</v>
+      </c>
+      <c r="F7" t="n">
+        <v>722</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1306</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.4628582298755646</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.7443093061447144</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2352</v>
+      </c>
+      <c r="K7" t="n">
+        <v>35</v>
+      </c>
+      <c r="L7" t="n">
+        <v>15</v>
+      </c>
+      <c r="M7" t="n">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7212024331092834</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6800932288169861</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1805</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2281</v>
+      </c>
+      <c r="F8" t="n">
+        <v>723</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1199</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.3818300068378448</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.7402557134628296</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2340</v>
+      </c>
+      <c r="K8" t="n">
+        <v>34</v>
+      </c>
+      <c r="L8" t="n">
+        <v>16</v>
+      </c>
+      <c r="M8" t="n">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7358320951461792</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6741011738777161</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1792</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2258</v>
+      </c>
+      <c r="F9" t="n">
+        <v>746</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1212</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4375748634338379</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.7134393453598022</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2254</v>
+      </c>
+      <c r="K9" t="n">
+        <v>34</v>
+      </c>
+      <c r="L9" t="n">
+        <v>16</v>
+      </c>
+      <c r="M9" t="n">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6357582211494446</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.699400782585144</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1831</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2371</v>
+      </c>
+      <c r="F10" t="n">
+        <v>633</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1173</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4278993904590607</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.7268475294113159</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2296</v>
+      </c>
+      <c r="K10" t="n">
+        <v>35</v>
+      </c>
+      <c r="L10" t="n">
+        <v>15</v>
+      </c>
+      <c r="M10" t="n">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6903968453407288</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6852530241012573</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1836</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2281</v>
+      </c>
+      <c r="F11" t="n">
+        <v>723</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1168</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.415010541677475</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.7599002122879028</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2407</v>
+      </c>
+      <c r="K11" t="n">
+        <v>30</v>
+      </c>
+      <c r="L11" t="n">
+        <v>20</v>
+      </c>
+      <c r="M11" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6183310151100159</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6912450194358826</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1920</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2233</v>
+      </c>
+      <c r="F12" t="n">
+        <v>771</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1084</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.490054190158844</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.703773021697998</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2222</v>
+      </c>
+      <c r="K12" t="n">
+        <v>35</v>
+      </c>
+      <c r="L12" t="n">
+        <v>15</v>
+      </c>
+      <c r="M12" t="n">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6102762222290039</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7047270536422729</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1959</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2275</v>
+      </c>
+      <c r="F13" t="n">
+        <v>729</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1045</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5314827561378479</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.7100093364715576</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2241</v>
+      </c>
+      <c r="K13" t="n">
+        <v>36</v>
+      </c>
+      <c r="L13" t="n">
+        <v>14</v>
+      </c>
+      <c r="M13" t="n">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5757070779800415</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7220372557640076</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2340</v>
+      </c>
+      <c r="F14" t="n">
+        <v>664</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1006</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5050285458564758</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.7221702337265015</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2281</v>
+      </c>
+      <c r="K14" t="n">
+        <v>35</v>
+      </c>
+      <c r="L14" t="n">
+        <v>15</v>
+      </c>
+      <c r="M14" t="n">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5725743770599365</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7195405960083008</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2303</v>
+      </c>
+      <c r="F15" t="n">
+        <v>701</v>
+      </c>
+      <c r="G15" t="n">
+        <v>984</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4968788623809814</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.7240411639213562</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2287</v>
+      </c>
+      <c r="K15" t="n">
+        <v>35</v>
+      </c>
+      <c r="L15" t="n">
+        <v>15</v>
+      </c>
+      <c r="M15" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5624549984931946</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7273635268211365</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2083</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2287</v>
+      </c>
+      <c r="F16" t="n">
+        <v>717</v>
+      </c>
+      <c r="G16" t="n">
+        <v>921</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4845446050167084</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.7296538949012756</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2306</v>
+      </c>
+      <c r="K16" t="n">
+        <v>34</v>
+      </c>
+      <c r="L16" t="n">
+        <v>16</v>
+      </c>
+      <c r="M16" t="n">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.550919771194458</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7336884140968323</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2102</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2306</v>
+      </c>
+      <c r="F17" t="n">
+        <v>698</v>
+      </c>
+      <c r="G17" t="n">
+        <v>902</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.4821500182151794</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.7365138530731201</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2328</v>
+      </c>
+      <c r="K17" t="n">
+        <v>34</v>
+      </c>
+      <c r="L17" t="n">
+        <v>16</v>
+      </c>
+      <c r="M17" t="n">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5465019345283508</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7383488416671753</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2091</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2345</v>
+      </c>
+      <c r="F18" t="n">
+        <v>659</v>
+      </c>
+      <c r="G18" t="n">
+        <v>913</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.4529738128185272</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.7617711424827576</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2408</v>
+      </c>
+      <c r="K18" t="n">
+        <v>35</v>
+      </c>
+      <c r="L18" t="n">
+        <v>15</v>
+      </c>
+      <c r="M18" t="n">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5358766317367554</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7435086369514465</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2121</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2346</v>
+      </c>
+      <c r="F19" t="n">
+        <v>658</v>
+      </c>
+      <c r="G19" t="n">
+        <v>883</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4697602391242981</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.7455565929412842</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2356</v>
+      </c>
+      <c r="K19" t="n">
+        <v>35</v>
+      </c>
+      <c r="L19" t="n">
+        <v>15</v>
+      </c>
+      <c r="M19" t="n">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5302219390869141</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7446737885475159</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2119</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2355</v>
+      </c>
+      <c r="F20" t="n">
+        <v>649</v>
+      </c>
+      <c r="G20" t="n">
+        <v>885</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.3919751644134521</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.7970065474510193</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2524</v>
+      </c>
+      <c r="K20" t="n">
+        <v>32</v>
+      </c>
+      <c r="L20" t="n">
+        <v>18</v>
+      </c>
+      <c r="M20" t="n">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5410833358764648</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7406790852546692</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2101</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2349</v>
+      </c>
+      <c r="F21" t="n">
+        <v>655</v>
+      </c>
+      <c r="G21" t="n">
+        <v>903</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.3893589973449707</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.7929528951644897</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2511</v>
+      </c>
+      <c r="K21" t="n">
+        <v>32</v>
+      </c>
+      <c r="L21" t="n">
+        <v>18</v>
+      </c>
+      <c r="M21" t="n">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5257493257522583</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7531624436378479</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2127</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2398</v>
+      </c>
+      <c r="F22" t="n">
+        <v>606</v>
+      </c>
+      <c r="G22" t="n">
+        <v>877</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4364766180515289</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.7633302211761475</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2414</v>
+      </c>
+      <c r="K22" t="n">
+        <v>34</v>
+      </c>
+      <c r="L22" t="n">
+        <v>16</v>
+      </c>
+      <c r="M22" t="n">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5202327370643616</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7526631355285645</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2142</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2380</v>
+      </c>
+      <c r="F23" t="n">
+        <v>624</v>
+      </c>
+      <c r="G23" t="n">
+        <v>862</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.3949095904827118</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8072965145111084</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2556</v>
+      </c>
+      <c r="K23" t="n">
+        <v>33</v>
+      </c>
+      <c r="L23" t="n">
+        <v>17</v>
+      </c>
+      <c r="M23" t="n">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5179969072341919</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7524966597557068</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2139</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2382</v>
+      </c>
+      <c r="F24" t="n">
+        <v>622</v>
+      </c>
+      <c r="G24" t="n">
+        <v>865</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4422751367092133</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.7614592909812927</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2407</v>
+      </c>
+      <c r="K24" t="n">
+        <v>35</v>
+      </c>
+      <c r="L24" t="n">
+        <v>15</v>
+      </c>
+      <c r="M24" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5174332857131958</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7544940114021301</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2143</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2390</v>
+      </c>
+      <c r="F25" t="n">
+        <v>614</v>
+      </c>
+      <c r="G25" t="n">
+        <v>861</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3988100588321686</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.7835983633995056</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2479</v>
+      </c>
+      <c r="K25" t="n">
+        <v>34</v>
+      </c>
+      <c r="L25" t="n">
+        <v>16</v>
+      </c>
+      <c r="M25" t="n">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5175986289978027</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.750832200050354</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2134</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2377</v>
+      </c>
+      <c r="F26" t="n">
+        <v>627</v>
+      </c>
+      <c r="G26" t="n">
+        <v>870</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.3906138241291046</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.7845338582992554</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2482</v>
+      </c>
+      <c r="K26" t="n">
+        <v>34</v>
+      </c>
+      <c r="L26" t="n">
+        <v>16</v>
+      </c>
+      <c r="M26" t="n">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5160307884216309</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7524966597557068</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2142</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2379</v>
+      </c>
+      <c r="F27" t="n">
+        <v>625</v>
+      </c>
+      <c r="G27" t="n">
+        <v>862</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.4128113389015198</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.7714374661445618</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2439</v>
+      </c>
+      <c r="K27" t="n">
+        <v>35</v>
+      </c>
+      <c r="L27" t="n">
+        <v>15</v>
+      </c>
+      <c r="M27" t="n">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5084958076477051</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.7526631355285645</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2130</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2392</v>
+      </c>
+      <c r="F28" t="n">
+        <v>612</v>
+      </c>
+      <c r="G28" t="n">
+        <v>874</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.3991584777832031</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.7789211273193359</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2463</v>
+      </c>
+      <c r="K28" t="n">
+        <v>35</v>
+      </c>
+      <c r="L28" t="n">
+        <v>15</v>
+      </c>
+      <c r="M28" t="n">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5097597241401672</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.7533289194107056</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2126</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F29" t="n">
+        <v>604</v>
+      </c>
+      <c r="G29" t="n">
+        <v>878</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.4415600895881653</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.7611474990844727</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2406</v>
+      </c>
+      <c r="K29" t="n">
+        <v>35</v>
+      </c>
+      <c r="L29" t="n">
+        <v>15</v>
+      </c>
+      <c r="M29" t="n">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5053071975708008</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.7566577792167664</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2148</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2398</v>
+      </c>
+      <c r="F30" t="n">
+        <v>606</v>
+      </c>
+      <c r="G30" t="n">
+        <v>856</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.4442747235298157</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7592765688896179</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K30" t="n">
+        <v>35</v>
+      </c>
+      <c r="L30" t="n">
+        <v>15</v>
+      </c>
+      <c r="M30" t="n">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5244097709655762</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.7440080046653748</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2110</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2360</v>
+      </c>
+      <c r="F31" t="n">
+        <v>644</v>
+      </c>
+      <c r="G31" t="n">
+        <v>894</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.416388601064682</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.7770501971244812</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2457</v>
+      </c>
+      <c r="K31" t="n">
+        <v>35</v>
+      </c>
+      <c r="L31" t="n">
+        <v>15</v>
+      </c>
+      <c r="M31" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.54401695728302</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7306923866271973</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2135</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2255</v>
+      </c>
+      <c r="F32" t="n">
+        <v>749</v>
+      </c>
+      <c r="G32" t="n">
+        <v>869</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.4786424934864044</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.7555347681045532</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2388</v>
+      </c>
+      <c r="K32" t="n">
+        <v>35</v>
+      </c>
+      <c r="L32" t="n">
+        <v>15</v>
+      </c>
+      <c r="M32" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5013723373413086</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.7498335838317871</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2382</v>
+      </c>
+      <c r="F33" t="n">
+        <v>622</v>
+      </c>
+      <c r="G33" t="n">
+        <v>881</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.4197317361831665</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7636420130729675</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2414</v>
+      </c>
+      <c r="K33" t="n">
+        <v>35</v>
+      </c>
+      <c r="L33" t="n">
+        <v>15</v>
+      </c>
+      <c r="M33" t="n">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5001923441886902</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.7524966597557068</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2139</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2382</v>
+      </c>
+      <c r="F34" t="n">
+        <v>622</v>
+      </c>
+      <c r="G34" t="n">
+        <v>865</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.4029085338115692</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.7779856324195862</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2460</v>
+      </c>
+      <c r="K34" t="n">
+        <v>35</v>
+      </c>
+      <c r="L34" t="n">
+        <v>15</v>
+      </c>
+      <c r="M34" t="n">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5488518476486206</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.7368508577346802</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2101</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2326</v>
+      </c>
+      <c r="F35" t="n">
+        <v>678</v>
+      </c>
+      <c r="G35" t="n">
+        <v>903</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.4741408228874207</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.7337074875831604</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2318</v>
+      </c>
+      <c r="K35" t="n">
+        <v>35</v>
+      </c>
+      <c r="L35" t="n">
+        <v>15</v>
+      </c>
+      <c r="M35" t="n">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5106536149978638</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.7513315677642822</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2145</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2369</v>
+      </c>
+      <c r="F36" t="n">
+        <v>635</v>
+      </c>
+      <c r="G36" t="n">
+        <v>859</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.4566469192504883</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7496102452278137</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2369</v>
+      </c>
+      <c r="K36" t="n">
+        <v>35</v>
+      </c>
+      <c r="L36" t="n">
+        <v>15</v>
+      </c>
+      <c r="M36" t="n">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.500932514667511</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.7563248872756958</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2168</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2376</v>
+      </c>
+      <c r="F37" t="n">
+        <v>628</v>
+      </c>
+      <c r="G37" t="n">
+        <v>836</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.4626652002334595</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.7502338886260986</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2371</v>
+      </c>
+      <c r="K37" t="n">
+        <v>35</v>
+      </c>
+      <c r="L37" t="n">
+        <v>15</v>
+      </c>
+      <c r="M37" t="n">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.4945501089096069</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.7578229308128357</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2183</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2370</v>
+      </c>
+      <c r="F38" t="n">
+        <v>634</v>
+      </c>
+      <c r="G38" t="n">
+        <v>821</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.4517849981784821</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.7549111247062683</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2386</v>
+      </c>
+      <c r="K38" t="n">
+        <v>35</v>
+      </c>
+      <c r="L38" t="n">
+        <v>15</v>
+      </c>
+      <c r="M38" t="n">
+        <v>771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>val_loss</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>val_acc</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>val_TP</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>val_TN</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>val_FP</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>val_FN</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.619850635528564</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.614347517490387</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1689</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1002</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3088131248950958</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7031493782997131</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2225</v>
+      </c>
+      <c r="K2" t="n">
+        <v>30</v>
+      </c>
+      <c r="L2" t="n">
+        <v>20</v>
+      </c>
+      <c r="M2" t="n">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7092524170875549</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6624500751495361</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1697</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2283</v>
+      </c>
+      <c r="F3" t="n">
+        <v>721</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1307</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3940077722072601</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.694730281829834</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2198</v>
+      </c>
+      <c r="K3" t="n">
+        <v>30</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20</v>
+      </c>
+      <c r="M3" t="n">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7265247106552124</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.657123863697052</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1677</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2271</v>
+      </c>
+      <c r="F4" t="n">
+        <v>733</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1327</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.497264176607132</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6448394060134888</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2032</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.678081750869751</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.673435389995575</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2346</v>
+      </c>
+      <c r="F5" t="n">
+        <v>658</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1304</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5198168754577637</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6507639288902283</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2052</v>
+      </c>
+      <c r="K5" t="n">
+        <v>35</v>
+      </c>
+      <c r="L5" t="n">
+        <v>15</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6486829519271851</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6824234127998352</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1766</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2334</v>
+      </c>
+      <c r="F6" t="n">
+        <v>670</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1238</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5179373025894165</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6825693845748901</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2154</v>
+      </c>
+      <c r="K6" t="n">
+        <v>35</v>
+      </c>
+      <c r="L6" t="n">
+        <v>15</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6241464614868164</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6974034905433655</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1848</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2342</v>
+      </c>
+      <c r="F7" t="n">
+        <v>662</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1156</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5705684423446655</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6800748109817505</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K7" t="n">
+        <v>34</v>
+      </c>
+      <c r="L7" t="n">
+        <v>16</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5952234268188477</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.720039963722229</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1972</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2354</v>
+      </c>
+      <c r="F8" t="n">
+        <v>650</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1032</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5817484259605408</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6813220977783203</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2152</v>
+      </c>
+      <c r="K8" t="n">
+        <v>33</v>
+      </c>
+      <c r="L8" t="n">
+        <v>17</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6160825490951538</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7070572376251221</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2257</v>
+      </c>
+      <c r="F9" t="n">
+        <v>747</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1013</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.617171049118042</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6080449223518372</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5837382078170776</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7270306348800659</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2035</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2333</v>
+      </c>
+      <c r="F10" t="n">
+        <v>671</v>
+      </c>
+      <c r="G10" t="n">
+        <v>969</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.6336590647697449</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6039912700653076</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1898</v>
+      </c>
+      <c r="K10" t="n">
+        <v>39</v>
+      </c>
+      <c r="L10" t="n">
+        <v>11</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5569844245910645</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7398468852043152</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2079</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2366</v>
+      </c>
+      <c r="F11" t="n">
+        <v>638</v>
+      </c>
+      <c r="G11" t="n">
+        <v>925</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5192506313323975</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.7499220371246338</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2373</v>
+      </c>
+      <c r="K11" t="n">
+        <v>32</v>
+      </c>
+      <c r="L11" t="n">
+        <v>18</v>
+      </c>
+      <c r="M11" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5454666614532471</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7426764369010925</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2103</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2359</v>
+      </c>
+      <c r="F12" t="n">
+        <v>645</v>
+      </c>
+      <c r="G12" t="n">
+        <v>901</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4908592998981476</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.7496102452278137</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2371</v>
+      </c>
+      <c r="K12" t="n">
+        <v>33</v>
+      </c>
+      <c r="L12" t="n">
+        <v>17</v>
+      </c>
+      <c r="M12" t="n">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5548834204673767</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7416777610778809</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2098</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2358</v>
+      </c>
+      <c r="F13" t="n">
+        <v>646</v>
+      </c>
+      <c r="G13" t="n">
+        <v>906</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5979077816009521</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.6357966661453247</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2006</v>
+      </c>
+      <c r="K13" t="n">
+        <v>33</v>
+      </c>
+      <c r="L13" t="n">
+        <v>17</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5566961765289307</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7326897382736206</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2043</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2359</v>
+      </c>
+      <c r="F14" t="n">
+        <v>645</v>
+      </c>
+      <c r="G14" t="n">
+        <v>961</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5039911866188049</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.7405675053596497</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2341</v>
+      </c>
+      <c r="K14" t="n">
+        <v>34</v>
+      </c>
+      <c r="L14" t="n">
+        <v>16</v>
+      </c>
+      <c r="M14" t="n">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5445927977561951</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7373502254486084</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2089</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2341</v>
+      </c>
+      <c r="F15" t="n">
+        <v>663</v>
+      </c>
+      <c r="G15" t="n">
+        <v>915</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5363322496414185</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.7318366169929504</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2315</v>
+      </c>
+      <c r="K15" t="n">
+        <v>32</v>
+      </c>
+      <c r="L15" t="n">
+        <v>18</v>
+      </c>
+      <c r="M15" t="n">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5539534091949463</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7313581705093384</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2069</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2325</v>
+      </c>
+      <c r="F16" t="n">
+        <v>679</v>
+      </c>
+      <c r="G16" t="n">
+        <v>935</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.6414802074432373</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.6067976355552673</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1907</v>
+      </c>
+      <c r="K16" t="n">
+        <v>39</v>
+      </c>
+      <c r="L16" t="n">
+        <v>11</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5354666113853455</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7411784529685974</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2097</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2356</v>
+      </c>
+      <c r="F17" t="n">
+        <v>648</v>
+      </c>
+      <c r="G17" t="n">
+        <v>907</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.4577414393424988</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.7599002122879028</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2404</v>
+      </c>
+      <c r="K17" t="n">
+        <v>33</v>
+      </c>
+      <c r="L17" t="n">
+        <v>17</v>
+      </c>
+      <c r="M17" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5444669723510742</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7325233221054077</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2081</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2320</v>
+      </c>
+      <c r="F18" t="n">
+        <v>684</v>
+      </c>
+      <c r="G18" t="n">
+        <v>923</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.6716423630714417</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5391331315040588</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1690</v>
+      </c>
+      <c r="K18" t="n">
+        <v>39</v>
+      </c>
+      <c r="L18" t="n">
+        <v>11</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5249133110046387</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7448402047157288</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2110</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2365</v>
+      </c>
+      <c r="F19" t="n">
+        <v>639</v>
+      </c>
+      <c r="G19" t="n">
+        <v>894</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5252932906150818</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.7327720522880554</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2317</v>
+      </c>
+      <c r="K19" t="n">
+        <v>33</v>
+      </c>
+      <c r="L19" t="n">
+        <v>17</v>
+      </c>
+      <c r="M19" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5313048362731934</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7443408966064453</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2109</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2363</v>
+      </c>
+      <c r="F20" t="n">
+        <v>641</v>
+      </c>
+      <c r="G20" t="n">
+        <v>895</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.6855882406234741</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.5840349197387695</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1833</v>
+      </c>
+      <c r="K20" t="n">
+        <v>40</v>
+      </c>
+      <c r="L20" t="n">
+        <v>10</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5422380566596985</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7320239543914795</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2086</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2312</v>
+      </c>
+      <c r="F21" t="n">
+        <v>692</v>
+      </c>
+      <c r="G21" t="n">
+        <v>918</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6398720741271973</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6055503487586975</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1904</v>
+      </c>
+      <c r="K21" t="n">
+        <v>38</v>
+      </c>
+      <c r="L21" t="n">
+        <v>12</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5245636701583862</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7466710805892944</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2156</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2330</v>
+      </c>
+      <c r="F22" t="n">
+        <v>674</v>
+      </c>
+      <c r="G22" t="n">
+        <v>848</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8026564717292786</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5444340705871582</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1706</v>
+      </c>
+      <c r="K22" t="n">
+        <v>40</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.535118579864502</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7405126690864563</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2326</v>
+      </c>
+      <c r="F23" t="n">
+        <v>678</v>
+      </c>
+      <c r="G23" t="n">
+        <v>881</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.684237539768219</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5890240073204041</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1850</v>
+      </c>
+      <c r="K23" t="n">
+        <v>39</v>
+      </c>
+      <c r="L23" t="n">
+        <v>11</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5255818963050842</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7483355402946472</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2161</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2335</v>
+      </c>
+      <c r="F24" t="n">
+        <v>669</v>
+      </c>
+      <c r="G24" t="n">
+        <v>843</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.718302309513092</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5531649589538574</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1735</v>
+      </c>
+      <c r="K24" t="n">
+        <v>39</v>
+      </c>
+      <c r="L24" t="n">
+        <v>11</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5119901299476624</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7501664161682129</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2169</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2338</v>
+      </c>
+      <c r="F25" t="n">
+        <v>666</v>
+      </c>
+      <c r="G25" t="n">
+        <v>835</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.7762520313262939</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.5304022431373596</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1657</v>
+      </c>
+      <c r="K25" t="n">
+        <v>44</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5743570923805237</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7153794765472412</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2310</v>
+      </c>
+      <c r="F26" t="n">
+        <v>694</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1016</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.5617275834083557</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6913002729415894</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2183</v>
+      </c>
+      <c r="K26" t="n">
+        <v>34</v>
+      </c>
+      <c r="L26" t="n">
+        <v>16</v>
+      </c>
+      <c r="M26" t="n">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5359780192375183</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.739347517490387</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2080</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2362</v>
+      </c>
+      <c r="F27" t="n">
+        <v>642</v>
+      </c>
+      <c r="G27" t="n">
+        <v>924</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.7082200646400452</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.5562831163406372</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1744</v>
+      </c>
+      <c r="K27" t="n">
+        <v>40</v>
+      </c>
+      <c r="L27" t="n">
+        <v>10</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5111965537071228</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2161</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2345</v>
+      </c>
+      <c r="F28" t="n">
+        <v>659</v>
+      </c>
+      <c r="G28" t="n">
+        <v>843</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.6071624159812927</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.6304957866668701</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1988</v>
+      </c>
+      <c r="K28" t="n">
+        <v>34</v>
+      </c>
+      <c r="L28" t="n">
+        <v>16</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5111264586448669</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.7541611194610596</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2210</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2321</v>
+      </c>
+      <c r="F29" t="n">
+        <v>683</v>
+      </c>
+      <c r="G29" t="n">
+        <v>794</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.704362154006958</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.5609604120254517</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1760</v>
+      </c>
+      <c r="K29" t="n">
+        <v>39</v>
+      </c>
+      <c r="L29" t="n">
+        <v>11</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5090360641479492</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.7523302435874939</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2194</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2326</v>
+      </c>
+      <c r="F30" t="n">
+        <v>678</v>
+      </c>
+      <c r="G30" t="n">
+        <v>810</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.6047178506851196</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.6392266750335693</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2017</v>
+      </c>
+      <c r="K30" t="n">
+        <v>33</v>
+      </c>
+      <c r="L30" t="n">
+        <v>17</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5107343196868896</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.7564913630485535</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2218</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2327</v>
+      </c>
+      <c r="F31" t="n">
+        <v>677</v>
+      </c>
+      <c r="G31" t="n">
+        <v>786</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.5465561151504517</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.6888057589530945</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K31" t="n">
+        <v>35</v>
+      </c>
+      <c r="L31" t="n">
+        <v>15</v>
+      </c>
+      <c r="M31" t="n">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5365395545959473</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7388482093811035</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2109</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2330</v>
+      </c>
+      <c r="F32" t="n">
+        <v>674</v>
+      </c>
+      <c r="G32" t="n">
+        <v>895</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.5451918244361877</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.7231057286262512</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2285</v>
+      </c>
+      <c r="K32" t="n">
+        <v>34</v>
+      </c>
+      <c r="L32" t="n">
+        <v>16</v>
+      </c>
+      <c r="M32" t="n">
+        <v>872</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>val_loss</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>val_acc</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>val_TP</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>val_TN</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>val_FP</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>val_FN</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.681465744972229</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6128495335578918</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1776</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1906</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1098</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1228</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2722764909267426</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.8088556528091431</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2582</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12</v>
+      </c>
+      <c r="L2" t="n">
+        <v>38</v>
+      </c>
+      <c r="M2" t="n">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7591244578361511</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6534620523452759</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1633</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2293</v>
+      </c>
+      <c r="F3" t="n">
+        <v>711</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1371</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2961213290691376</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7745556831359863</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2462</v>
+      </c>
+      <c r="K3" t="n">
+        <v>22</v>
+      </c>
+      <c r="L3" t="n">
+        <v>28</v>
+      </c>
+      <c r="M3" t="n">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7521752119064331</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6498002409934998</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1632</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2272</v>
+      </c>
+      <c r="F4" t="n">
+        <v>732</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1372</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.366163432598114</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6944184303283691</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2197</v>
+      </c>
+      <c r="K4" t="n">
+        <v>30</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M4" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7078648805618286</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6654460430145264</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1671</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2327</v>
+      </c>
+      <c r="F5" t="n">
+        <v>677</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1333</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3406473100185394</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7146866321563721</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2262</v>
+      </c>
+      <c r="K5" t="n">
+        <v>30</v>
+      </c>
+      <c r="L5" t="n">
+        <v>20</v>
+      </c>
+      <c r="M5" t="n">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6825369596481323</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6746005415916443</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1680</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2373</v>
+      </c>
+      <c r="F6" t="n">
+        <v>631</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1324</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.3097475469112396</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.7287184000015259</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2307</v>
+      </c>
+      <c r="K6" t="n">
+        <v>30</v>
+      </c>
+      <c r="L6" t="n">
+        <v>20</v>
+      </c>
+      <c r="M6" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6790456771850586</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6760985255241394</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1685</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2377</v>
+      </c>
+      <c r="F7" t="n">
+        <v>627</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1319</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2731015980243683</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.7807919979095459</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2475</v>
+      </c>
+      <c r="K7" t="n">
+        <v>29</v>
+      </c>
+      <c r="L7" t="n">
+        <v>21</v>
+      </c>
+      <c r="M7" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6372243165969849</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6880825757980347</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1741</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2393</v>
+      </c>
+      <c r="F8" t="n">
+        <v>611</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1263</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.2697537541389465</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.8166510462760925</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2592</v>
+      </c>
+      <c r="K8" t="n">
+        <v>27</v>
+      </c>
+      <c r="L8" t="n">
+        <v>23</v>
+      </c>
+      <c r="M8" t="n">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6250245571136475</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6927430033683777</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1766</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2396</v>
+      </c>
+      <c r="F9" t="n">
+        <v>608</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1238</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2454876303672791</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9304646253585815</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2960</v>
+      </c>
+      <c r="K9" t="n">
+        <v>24</v>
+      </c>
+      <c r="L9" t="n">
+        <v>26</v>
+      </c>
+      <c r="M9" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.608068585395813</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7045605778694153</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1847</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2386</v>
+      </c>
+      <c r="F10" t="n">
+        <v>618</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1157</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2588444352149963</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.8540692329406738</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2715</v>
+      </c>
+      <c r="K10" t="n">
+        <v>24</v>
+      </c>
+      <c r="L10" t="n">
+        <v>26</v>
+      </c>
+      <c r="M10" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5889350771903992</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7230359315872192</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1931</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2413</v>
+      </c>
+      <c r="F11" t="n">
+        <v>591</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1073</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.2564270496368408</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.8185219764709473</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2597</v>
+      </c>
+      <c r="K11" t="n">
+        <v>28</v>
+      </c>
+      <c r="L11" t="n">
+        <v>22</v>
+      </c>
+      <c r="M11" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5788723230361938</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.727696418762207</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1966</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2406</v>
+      </c>
+      <c r="F12" t="n">
+        <v>598</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1038</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.2390598058700562</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8565637469291687</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2721</v>
+      </c>
+      <c r="K12" t="n">
+        <v>26</v>
+      </c>
+      <c r="L12" t="n">
+        <v>24</v>
+      </c>
+      <c r="M12" t="n">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5650919079780579</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7318575382232666</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2392</v>
+      </c>
+      <c r="F13" t="n">
+        <v>612</v>
+      </c>
+      <c r="G13" t="n">
+        <v>999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.2197092771530151</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9217337369918823</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2933</v>
+      </c>
+      <c r="K13" t="n">
+        <v>23</v>
+      </c>
+      <c r="L13" t="n">
+        <v>27</v>
+      </c>
+      <c r="M13" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5590952634811401</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7328562140464783</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2031</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2372</v>
+      </c>
+      <c r="F14" t="n">
+        <v>632</v>
+      </c>
+      <c r="G14" t="n">
+        <v>973</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2364053726196289</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.873401939868927</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2777</v>
+      </c>
+      <c r="K14" t="n">
+        <v>24</v>
+      </c>
+      <c r="L14" t="n">
+        <v>26</v>
+      </c>
+      <c r="M14" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5483507513999939</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7350199818611145</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2047</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2369</v>
+      </c>
+      <c r="F15" t="n">
+        <v>635</v>
+      </c>
+      <c r="G15" t="n">
+        <v>957</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.2661308348178864</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.822263777256012</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2610</v>
+      </c>
+      <c r="K15" t="n">
+        <v>27</v>
+      </c>
+      <c r="L15" t="n">
+        <v>23</v>
+      </c>
+      <c r="M15" t="n">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5367864966392517</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7370173335075378</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2071</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2357</v>
+      </c>
+      <c r="F16" t="n">
+        <v>647</v>
+      </c>
+      <c r="G16" t="n">
+        <v>933</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.2624658346176147</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8275647163391113</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2628</v>
+      </c>
+      <c r="K16" t="n">
+        <v>26</v>
+      </c>
+      <c r="L16" t="n">
+        <v>24</v>
+      </c>
+      <c r="M16" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5293537378311157</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7391811013221741</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2077</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2364</v>
+      </c>
+      <c r="F17" t="n">
+        <v>640</v>
+      </c>
+      <c r="G17" t="n">
+        <v>927</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2596229910850525</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8553165197372437</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2712</v>
+      </c>
+      <c r="K17" t="n">
+        <v>31</v>
+      </c>
+      <c r="L17" t="n">
+        <v>19</v>
+      </c>
+      <c r="M17" t="n">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.520237922668457</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7441744208335876</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2106</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2365</v>
+      </c>
+      <c r="F18" t="n">
+        <v>639</v>
+      </c>
+      <c r="G18" t="n">
+        <v>898</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.2890409827232361</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8172746896743774</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2589</v>
+      </c>
+      <c r="K18" t="n">
+        <v>32</v>
+      </c>
+      <c r="L18" t="n">
+        <v>18</v>
+      </c>
+      <c r="M18" t="n">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5557518601417542</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7406790852546692</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2060</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2390</v>
+      </c>
+      <c r="F19" t="n">
+        <v>614</v>
+      </c>
+      <c r="G19" t="n">
+        <v>944</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.2430929094552994</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8478328585624695</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2692</v>
+      </c>
+      <c r="K19" t="n">
+        <v>27</v>
+      </c>
+      <c r="L19" t="n">
+        <v>23</v>
+      </c>
+      <c r="M19" t="n">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5372170209884644</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7441744208335876</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2082</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2389</v>
+      </c>
+      <c r="F20" t="n">
+        <v>615</v>
+      </c>
+      <c r="G20" t="n">
+        <v>922</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.2704006731510162</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8188338279724121</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2594</v>
+      </c>
+      <c r="K20" t="n">
+        <v>32</v>
+      </c>
+      <c r="L20" t="n">
+        <v>18</v>
+      </c>
+      <c r="M20" t="n">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4980873763561249</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7566577792167664</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2121</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2425</v>
+      </c>
+      <c r="F21" t="n">
+        <v>579</v>
+      </c>
+      <c r="G21" t="n">
+        <v>883</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.2785003781318665</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8425319790840149</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2670</v>
+      </c>
+      <c r="K21" t="n">
+        <v>32</v>
+      </c>
+      <c r="L21" t="n">
+        <v>18</v>
+      </c>
+      <c r="M21" t="n">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4883531033992767</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7571571469306946</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2137</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2412</v>
+      </c>
+      <c r="F22" t="n">
+        <v>592</v>
+      </c>
+      <c r="G22" t="n">
+        <v>867</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.2901128828525543</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8238229155540466</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2610</v>
+      </c>
+      <c r="K22" t="n">
+        <v>32</v>
+      </c>
+      <c r="L22" t="n">
+        <v>18</v>
+      </c>
+      <c r="M22" t="n">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.482232928276062</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.761484682559967</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2160</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2415</v>
+      </c>
+      <c r="F23" t="n">
+        <v>589</v>
+      </c>
+      <c r="G23" t="n">
+        <v>844</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.2646747827529907</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8515746593475342</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2700</v>
+      </c>
+      <c r="K23" t="n">
+        <v>31</v>
+      </c>
+      <c r="L23" t="n">
+        <v>19</v>
+      </c>
+      <c r="M23" t="n">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4770553708076477</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7629826664924622</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2172</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2412</v>
+      </c>
+      <c r="F24" t="n">
+        <v>592</v>
+      </c>
+      <c r="G24" t="n">
+        <v>832</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.2657716274261475</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8503274321556091</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2694</v>
+      </c>
+      <c r="K24" t="n">
+        <v>33</v>
+      </c>
+      <c r="L24" t="n">
+        <v>17</v>
+      </c>
+      <c r="M24" t="n">
+        <v>463</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>